--- a/tests/excel/timetable.xlsx
+++ b/tests/excel/timetable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Понедельник</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Хузина Ч. В.</t>
   </si>
   <si>
-    <t>Гараева Л. А.</t>
-  </si>
-  <si>
     <t>Математика</t>
   </si>
   <si>
@@ -60,26 +57,69 @@
     <t>Макришин В. Н</t>
   </si>
   <si>
-    <t>Амакаев М. О.</t>
-  </si>
-  <si>
     <t>Спортзал</t>
   </si>
   <si>
     <t>10.4</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>8:00</t>
+  </si>
+  <si>
+    <t>8:40</t>
+  </si>
+  <si>
+    <t>8:50</t>
+  </si>
+  <si>
+    <t>9:30</t>
+  </si>
+  <si>
+    <t>9:40</t>
+  </si>
+  <si>
+    <t>10:20</t>
+  </si>
+  <si>
+    <t>10:50</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>11:40</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>12:35</t>
+  </si>
+  <si>
+    <t>13:15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,15 +142,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -394,30 +447,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -426,12 +482,16 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -440,12 +500,18 @@
       <c r="D3" s="1">
         <v>233</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -454,145 +520,155 @@
       <c r="D4" s="1">
         <v>233</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>310</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1" t="s">
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D6" s="2">
+        <v>310</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
         <v>310</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="3">
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
